--- a/Totalligent.UI/Uploads/Agentmaster.xlsx
+++ b/Totalligent.UI/Uploads/Agentmaster.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Downloads\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41181908-73FD-48B9-9A41-2F5095036672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398CBDE7-B8E3-4D90-8C88-F4A1B6143C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6AAE046E-C136-4222-A1E3-F019F3BBDED6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AgentMaster" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Zipcode</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>AgentName</t>
-  </si>
-  <si>
-    <t>AgentCode</t>
   </si>
   <si>
     <t>Address</t>
@@ -510,24 +507,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C431FF-39D5-4E44-9EE8-AB3F1A4328CA}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -538,158 +535,140 @@
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>10001</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2">
         <v>600021</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>9578544470</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
-        <v>10002</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2">
         <v>600021</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>9578544471</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
-        <v>10003</v>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2">
         <v>600214</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>9574455471</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2">
-        <v>10004</v>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2">
         <v>602214</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>9574454455</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2">
-        <v>10005</v>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2">
         <v>602215</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>9574454457</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{2790E696-DFF3-4BF0-90E2-B491C0676ED5}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{BD5061C2-E33A-4CC8-912A-881E1835F19E}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{F12B0401-9B60-4506-A393-72627271DF54}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{5DD576B6-777D-49FB-A37B-7B2CD2D48435}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{210CDDB9-4E5D-4DDF-AE95-292E8AB1E324}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{2790E696-DFF3-4BF0-90E2-B491C0676ED5}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{BD5061C2-E33A-4CC8-912A-881E1835F19E}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{F12B0401-9B60-4506-A393-72627271DF54}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{5DD576B6-777D-49FB-A37B-7B2CD2D48435}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{210CDDB9-4E5D-4DDF-AE95-292E8AB1E324}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
